--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>204.9524636666667</v>
+        <v>5.709567</v>
       </c>
       <c r="H2">
-        <v>614.857391</v>
+        <v>11.419134</v>
       </c>
       <c r="I2">
-        <v>0.9721146820600982</v>
+        <v>0.02578332942368156</v>
       </c>
       <c r="J2">
-        <v>0.9773424603215415</v>
+        <v>0.017569499962005</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N2">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O2">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P2">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q2">
-        <v>5254.051913943069</v>
+        <v>106.825513256805</v>
       </c>
       <c r="R2">
-        <v>31524.31148365841</v>
+        <v>427.30205302722</v>
       </c>
       <c r="S2">
-        <v>0.04575679538636188</v>
+        <v>0.0005600589359594193</v>
       </c>
       <c r="T2">
-        <v>0.03189826277292616</v>
+        <v>0.0002574149451536433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>204.9524636666667</v>
+        <v>5.709567</v>
       </c>
       <c r="H3">
-        <v>614.857391</v>
+        <v>11.419134</v>
       </c>
       <c r="I3">
-        <v>0.9721146820600982</v>
+        <v>0.02578332942368156</v>
       </c>
       <c r="J3">
-        <v>0.9773424603215415</v>
+        <v>0.017569499962005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N3">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O3">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P3">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q3">
-        <v>39997.76264049893</v>
+        <v>1176.176115703688</v>
       </c>
       <c r="R3">
-        <v>359979.8637644904</v>
+        <v>7057.056694222128</v>
       </c>
       <c r="S3">
-        <v>0.348334860604769</v>
+        <v>0.006166391564890778</v>
       </c>
       <c r="T3">
-        <v>0.3642500580313799</v>
+        <v>0.004251306187320423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>204.9524636666667</v>
+        <v>5.709567</v>
       </c>
       <c r="H4">
-        <v>614.857391</v>
+        <v>11.419134</v>
       </c>
       <c r="I4">
-        <v>0.9721146820600982</v>
+        <v>0.02578332942368156</v>
       </c>
       <c r="J4">
-        <v>0.9773424603215415</v>
+        <v>0.017569499962005</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N4">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O4">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P4">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q4">
-        <v>7655.320067803742</v>
+        <v>64.43913522403949</v>
       </c>
       <c r="R4">
-        <v>45931.92040682246</v>
+        <v>257.756540896158</v>
       </c>
       <c r="S4">
-        <v>0.06666910028620653</v>
+        <v>0.0003378379603097456</v>
       </c>
       <c r="T4">
-        <v>0.04647677928069757</v>
+        <v>0.0001552774796369879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>204.9524636666667</v>
+        <v>5.709567</v>
       </c>
       <c r="H5">
-        <v>614.857391</v>
+        <v>11.419134</v>
       </c>
       <c r="I5">
-        <v>0.9721146820600982</v>
+        <v>0.02578332942368156</v>
       </c>
       <c r="J5">
-        <v>0.9773424603215415</v>
+        <v>0.017569499962005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N5">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O5">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P5">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q5">
-        <v>4868.838702987464</v>
+        <v>2777.124002271852</v>
       </c>
       <c r="R5">
-        <v>43819.54832688718</v>
+        <v>16662.74401363111</v>
       </c>
       <c r="S5">
-        <v>0.04240202798731062</v>
+        <v>0.01455975324921416</v>
       </c>
       <c r="T5">
-        <v>0.04433934957934162</v>
+        <v>0.01003795630278616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>204.9524636666667</v>
+        <v>5.709567</v>
       </c>
       <c r="H6">
-        <v>614.857391</v>
+        <v>11.419134</v>
       </c>
       <c r="I6">
-        <v>0.9721146820600982</v>
+        <v>0.02578332942368156</v>
       </c>
       <c r="J6">
-        <v>0.9773424603215415</v>
+        <v>0.017569499962005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N6">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O6">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P6">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q6">
-        <v>53847.68743865747</v>
+        <v>793.3415864450841</v>
       </c>
       <c r="R6">
-        <v>484629.1869479172</v>
+        <v>4760.049518670504</v>
       </c>
       <c r="S6">
-        <v>0.46895189779545</v>
+        <v>0.004159287713307452</v>
       </c>
       <c r="T6">
-        <v>0.4903780106571962</v>
+        <v>0.002867545047107787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5370376666666666</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H7">
-        <v>1.611113</v>
+        <v>614.857391</v>
       </c>
       <c r="I7">
-        <v>0.002547235545482596</v>
+        <v>0.9255267320468945</v>
       </c>
       <c r="J7">
-        <v>0.002560933911382419</v>
+        <v>0.9460206796603836</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N7">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O7">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P7">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q7">
-        <v>13.76721084455267</v>
+        <v>3834.643174243922</v>
       </c>
       <c r="R7">
-        <v>82.60326506731599</v>
+        <v>23007.85904546353</v>
       </c>
       <c r="S7">
-        <v>0.0001198966930614772</v>
+        <v>0.02010405670402237</v>
       </c>
       <c r="T7">
-        <v>8.358313095544682E-05</v>
+        <v>0.01386037518971029</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5370376666666666</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H8">
-        <v>1.611113</v>
+        <v>614.857391</v>
       </c>
       <c r="I8">
-        <v>0.002547235545482596</v>
+        <v>0.9255267320468945</v>
       </c>
       <c r="J8">
-        <v>0.002560933911382419</v>
+        <v>0.9460206796603836</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N8">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O8">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P8">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q8">
-        <v>104.806279153961</v>
+        <v>42220.39825775952</v>
       </c>
       <c r="R8">
-        <v>943.2565123856489</v>
+        <v>379983.5843198357</v>
       </c>
       <c r="S8">
-        <v>0.0009127430693494441</v>
+        <v>0.2213507859979079</v>
       </c>
       <c r="T8">
-        <v>0.0009544457175519427</v>
+        <v>0.2289093928381953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5370376666666666</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H9">
-        <v>1.611113</v>
+        <v>614.857391</v>
       </c>
       <c r="I9">
-        <v>0.002547235545482596</v>
+        <v>0.9255267320468945</v>
       </c>
       <c r="J9">
-        <v>0.002560933911382419</v>
+        <v>0.9460206796603836</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N9">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O9">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P9">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q9">
-        <v>20.059262295506</v>
+        <v>2313.128039432127</v>
       </c>
       <c r="R9">
-        <v>120.355573773036</v>
+        <v>13878.76823659276</v>
       </c>
       <c r="S9">
-        <v>0.0001746932796802162</v>
+        <v>0.01212714068958362</v>
       </c>
       <c r="T9">
-        <v>0.0001217832694106177</v>
+        <v>0.008360835945234905</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5370376666666666</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H10">
-        <v>1.611113</v>
+        <v>614.857391</v>
       </c>
       <c r="I10">
-        <v>0.002547235545482596</v>
+        <v>0.9255267320468945</v>
       </c>
       <c r="J10">
-        <v>0.002560933911382419</v>
+        <v>0.9460206796603836</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N10">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O10">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P10">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q10">
-        <v>12.75783530312355</v>
+        <v>99688.54138561639</v>
       </c>
       <c r="R10">
-        <v>114.820517728112</v>
+        <v>897196.8724705476</v>
       </c>
       <c r="S10">
-        <v>0.0001111061841602226</v>
+        <v>0.5226416116677844</v>
       </c>
       <c r="T10">
-        <v>0.0001161825547915091</v>
+        <v>0.5404885890036062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5370376666666666</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H11">
-        <v>1.611113</v>
+        <v>614.857391</v>
       </c>
       <c r="I11">
-        <v>0.002547235545482596</v>
+        <v>0.9255267320468945</v>
       </c>
       <c r="J11">
-        <v>0.002560933911382419</v>
+        <v>0.9460206796603836</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N11">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O11">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P11">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q11">
-        <v>141.0972861711241</v>
+        <v>28478.04617603082</v>
       </c>
       <c r="R11">
-        <v>1269.875575540117</v>
+        <v>256302.4155842774</v>
       </c>
       <c r="S11">
-        <v>0.001228796319231236</v>
+        <v>0.1493031369875962</v>
       </c>
       <c r="T11">
-        <v>0.001284939238672903</v>
+        <v>0.154401486683637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.383197</v>
+        <v>0.396754</v>
       </c>
       <c r="H12">
-        <v>6.766394</v>
+        <v>1.190262</v>
       </c>
       <c r="I12">
-        <v>0.01604691847642608</v>
+        <v>0.001791666352660955</v>
       </c>
       <c r="J12">
-        <v>0.01075547640194979</v>
+        <v>0.001831339238490064</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N12">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O12">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P12">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q12">
-        <v>86.72983166480201</v>
+        <v>7.423233615910001</v>
       </c>
       <c r="R12">
-        <v>346.919326659208</v>
+        <v>44.53940169546</v>
       </c>
       <c r="S12">
-        <v>0.0007553178435196854</v>
+        <v>3.891812165049354E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003510345927307083</v>
+        <v>2.683138909206825E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.383197</v>
+        <v>0.396754</v>
       </c>
       <c r="H13">
-        <v>6.766394</v>
+        <v>1.190262</v>
       </c>
       <c r="I13">
-        <v>0.01604691847642608</v>
+        <v>0.001791666352660955</v>
       </c>
       <c r="J13">
-        <v>0.01075547640194979</v>
+        <v>0.001831339238490064</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N13">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O13">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P13">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q13">
-        <v>660.2521782423271</v>
+        <v>81.73169324572267</v>
       </c>
       <c r="R13">
-        <v>3961.513069453962</v>
+        <v>735.5852392115039</v>
       </c>
       <c r="S13">
-        <v>0.00575004288462789</v>
+        <v>0.000428498434108344</v>
       </c>
       <c r="T13">
-        <v>0.004008505782380975</v>
+        <v>0.0004431306441567619</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.383197</v>
+        <v>0.396754</v>
       </c>
       <c r="H14">
-        <v>6.766394</v>
+        <v>1.190262</v>
       </c>
       <c r="I14">
-        <v>0.01604691847642608</v>
+        <v>0.001791666352660955</v>
       </c>
       <c r="J14">
-        <v>0.01075547640194979</v>
+        <v>0.001831339238490064</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N14">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O14">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P14">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q14">
-        <v>126.368112020142</v>
+        <v>4.477832497049</v>
       </c>
       <c r="R14">
-        <v>505.472448080568</v>
+        <v>26.866994982294</v>
       </c>
       <c r="S14">
-        <v>0.001100522023720748</v>
+        <v>2.347613437319026E-05</v>
       </c>
       <c r="T14">
-        <v>0.0005114685211033535</v>
+        <v>1.61851926308668E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.383197</v>
+        <v>0.396754</v>
       </c>
       <c r="H15">
-        <v>6.766394</v>
+        <v>1.190262</v>
       </c>
       <c r="I15">
-        <v>0.01604691847642608</v>
+        <v>0.001791666352660955</v>
       </c>
       <c r="J15">
-        <v>0.01075547640194979</v>
+        <v>0.001831339238490064</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N15">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O15">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P15">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q15">
-        <v>80.37102945110932</v>
+        <v>192.980493336424</v>
       </c>
       <c r="R15">
-        <v>482.226176706656</v>
+        <v>1736.824440027816</v>
       </c>
       <c r="S15">
-        <v>0.0006999399339443835</v>
+        <v>0.001011747535432847</v>
       </c>
       <c r="T15">
-        <v>0.0004879464951533121</v>
+        <v>0.00104629632552406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.383197</v>
+        <v>0.396754</v>
       </c>
       <c r="H16">
-        <v>6.766394</v>
+        <v>1.190262</v>
       </c>
       <c r="I16">
-        <v>0.01604691847642608</v>
+        <v>0.001791666352660955</v>
       </c>
       <c r="J16">
-        <v>0.01075547640194979</v>
+        <v>0.001831339238490064</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N16">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O16">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P16">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q16">
-        <v>888.8760414985577</v>
+        <v>55.12877732907467</v>
       </c>
       <c r="R16">
-        <v>5333.256248991346</v>
+        <v>496.158995961672</v>
       </c>
       <c r="S16">
-        <v>0.007741095790613372</v>
+        <v>0.0002890261270960801</v>
       </c>
       <c r="T16">
-        <v>0.005396521010581441</v>
+        <v>0.0002988956870863069</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.044945666666667</v>
+        <v>8.6820775</v>
       </c>
       <c r="H17">
-        <v>3.134837</v>
+        <v>17.364155</v>
       </c>
       <c r="I17">
-        <v>0.004956305507865697</v>
+        <v>0.03920662709876837</v>
       </c>
       <c r="J17">
-        <v>0.004982959221331048</v>
+        <v>0.0267165198878259</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N17">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O17">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P17">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q17">
-        <v>26.78766910968067</v>
+        <v>162.4409320484125</v>
       </c>
       <c r="R17">
-        <v>160.726014658084</v>
+        <v>649.7637281936501</v>
       </c>
       <c r="S17">
-        <v>0.0002332900234724454</v>
+        <v>0.0008516364001976359</v>
       </c>
       <c r="T17">
-        <v>0.0001626325971517703</v>
+        <v>0.0003914301213178127</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.044945666666667</v>
+        <v>8.6820775</v>
       </c>
       <c r="H18">
-        <v>3.134837</v>
+        <v>17.364155</v>
       </c>
       <c r="I18">
-        <v>0.004956305507865697</v>
+        <v>0.03920662709876837</v>
       </c>
       <c r="J18">
-        <v>0.004982959221331048</v>
+        <v>0.0267165198878259</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N18">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O18">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P18">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q18">
-        <v>203.927720603189</v>
+        <v>1788.516045120127</v>
       </c>
       <c r="R18">
-        <v>1835.349485428701</v>
+        <v>10731.09627072076</v>
       </c>
       <c r="S18">
-        <v>0.001775977690758006</v>
+        <v>0.009376733728096722</v>
       </c>
       <c r="T18">
-        <v>0.001857120977779572</v>
+        <v>0.006464618034002478</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.044945666666667</v>
+        <v>8.6820775</v>
       </c>
       <c r="H19">
-        <v>3.134837</v>
+        <v>17.364155</v>
       </c>
       <c r="I19">
-        <v>0.004956305507865697</v>
+        <v>0.03920662709876837</v>
       </c>
       <c r="J19">
-        <v>0.004982959221331048</v>
+        <v>0.0267165198878259</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N19">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O19">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P19">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q19">
-        <v>39.030482428394</v>
+        <v>97.98738959505874</v>
       </c>
       <c r="R19">
-        <v>234.182894570364</v>
+        <v>391.949558380235</v>
       </c>
       <c r="S19">
-        <v>0.0003399109539758477</v>
+        <v>0.0005137229064570282</v>
       </c>
       <c r="T19">
-        <v>0.0002369608456572398</v>
+        <v>0.0002361179249167233</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.044945666666667</v>
+        <v>8.6820775</v>
       </c>
       <c r="H20">
-        <v>3.134837</v>
+        <v>17.364155</v>
       </c>
       <c r="I20">
-        <v>0.004956305507865697</v>
+        <v>0.03920662709876837</v>
       </c>
       <c r="J20">
-        <v>0.004982959221331048</v>
+        <v>0.0267165198878259</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N20">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O20">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P20">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q20">
-        <v>24.82366795385422</v>
+        <v>4222.94822266459</v>
       </c>
       <c r="R20">
-        <v>223.413011584688</v>
+        <v>25337.68933598754</v>
       </c>
       <c r="S20">
-        <v>0.0002161858150448042</v>
+        <v>0.02213984109312566</v>
       </c>
       <c r="T20">
-        <v>0.0002260632069351746</v>
+        <v>0.01526390960337324</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1.044945666666667</v>
+        <v>8.6820775</v>
       </c>
       <c r="H21">
-        <v>3.134837</v>
+        <v>17.364155</v>
       </c>
       <c r="I21">
-        <v>0.004956305507865697</v>
+        <v>0.03920662709876837</v>
       </c>
       <c r="J21">
-        <v>0.004982959221331048</v>
+        <v>0.0267165198878259</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N21">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O21">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P21">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q21">
-        <v>274.5412601653815</v>
+        <v>1206.370489651697</v>
       </c>
       <c r="R21">
-        <v>2470.871341488433</v>
+        <v>7238.222937910181</v>
       </c>
       <c r="S21">
-        <v>0.002390941024614593</v>
+        <v>0.006324692970891327</v>
       </c>
       <c r="T21">
-        <v>0.002500181593807291</v>
+        <v>0.004360444204215654</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.9139249999999999</v>
+        <v>0.1923663333333333</v>
       </c>
       <c r="H22">
-        <v>2.741775</v>
+        <v>0.577099</v>
       </c>
       <c r="I22">
-        <v>0.004334858410127374</v>
+        <v>0.00086869013751114</v>
       </c>
       <c r="J22">
-        <v>0.004358170143795334</v>
+        <v>0.0008879255518477255</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N22">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O22">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P22">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q22">
-        <v>23.42889326405</v>
+        <v>3.599157745528334</v>
       </c>
       <c r="R22">
-        <v>140.5733595843</v>
+        <v>21.59494647317</v>
       </c>
       <c r="S22">
-        <v>0.0002040389194417967</v>
+        <v>1.886946662699319E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001422408849505716</v>
+        <v>1.300920958044825E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.9139249999999999</v>
+        <v>0.1923663333333333</v>
       </c>
       <c r="H23">
-        <v>2.741775</v>
+        <v>0.577099</v>
       </c>
       <c r="I23">
-        <v>0.004334858410127374</v>
+        <v>0.00086869013751114</v>
       </c>
       <c r="J23">
-        <v>0.004358170143795334</v>
+        <v>0.0008879255518477255</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N23">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O23">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P23">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q23">
-        <v>178.358213252175</v>
+        <v>39.62764369560089</v>
       </c>
       <c r="R23">
-        <v>1605.223919269575</v>
+        <v>356.648793260408</v>
       </c>
       <c r="S23">
-        <v>0.001553296465837947</v>
+        <v>0.0002077576347270527</v>
       </c>
       <c r="T23">
-        <v>0.001624265589838191</v>
+        <v>0.0002148520675382589</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.9139249999999999</v>
+        <v>0.1923663333333333</v>
       </c>
       <c r="H24">
-        <v>2.741775</v>
+        <v>0.577099</v>
       </c>
       <c r="I24">
-        <v>0.004334858410127374</v>
+        <v>0.00086869013751114</v>
       </c>
       <c r="J24">
-        <v>0.004358170143795334</v>
+        <v>0.0008879255518477255</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N24">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O24">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P24">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q24">
-        <v>34.13663962755</v>
+        <v>2.171078851727167</v>
       </c>
       <c r="R24">
-        <v>204.8198377653</v>
+        <v>13.026473110363</v>
       </c>
       <c r="S24">
-        <v>0.000297291168834976</v>
+        <v>1.138241300708056E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002072494750450752</v>
+        <v>7.847397028621095E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.9139249999999999</v>
+        <v>0.1923663333333333</v>
       </c>
       <c r="H25">
-        <v>2.741775</v>
+        <v>0.577099</v>
       </c>
       <c r="I25">
-        <v>0.004334858410127374</v>
+        <v>0.00086869013751114</v>
       </c>
       <c r="J25">
-        <v>0.004358170143795334</v>
+        <v>0.0008879255518477255</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N25">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O25">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P25">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q25">
-        <v>21.71114868306666</v>
+        <v>93.56666828308133</v>
       </c>
       <c r="R25">
-        <v>195.4003381475999</v>
+        <v>842.100014547732</v>
       </c>
       <c r="S25">
-        <v>0.0001890793247127261</v>
+        <v>0.0004905461914694082</v>
       </c>
       <c r="T25">
-        <v>0.0001977182383628521</v>
+        <v>0.0005072971859671313</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,371 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.1923663333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.577099</v>
+      </c>
+      <c r="I26">
+        <v>0.00086869013751114</v>
+      </c>
+      <c r="J26">
+        <v>0.0008879255518477255</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>138.9495186666667</v>
+      </c>
+      <c r="N26">
+        <v>416.848556</v>
+      </c>
+      <c r="O26">
+        <v>0.1613169364188946</v>
+      </c>
+      <c r="P26">
+        <v>0.1632115343811155</v>
+      </c>
+      <c r="Q26">
+        <v>26.72920942433823</v>
+      </c>
+      <c r="R26">
+        <v>240.562884819044</v>
+      </c>
+      <c r="S26">
+        <v>0.0001401344316806054</v>
+      </c>
+      <c r="T26">
+        <v>0.000144919691733266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.510903333333333</v>
+      </c>
+      <c r="H27">
+        <v>4.53271</v>
+      </c>
+      <c r="I27">
+        <v>0.006822954940483556</v>
+      </c>
+      <c r="J27">
+        <v>0.006974035699447934</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>18.709915</v>
+      </c>
+      <c r="N27">
+        <v>37.41983</v>
+      </c>
+      <c r="O27">
+        <v>0.02172174612348608</v>
+      </c>
+      <c r="P27">
+        <v>0.0146512391195149</v>
+      </c>
+      <c r="Q27">
+        <v>28.26887293988333</v>
+      </c>
+      <c r="R27">
+        <v>169.6132376393</v>
+      </c>
+      <c r="S27">
+        <v>0.0001482064950291688</v>
+      </c>
+      <c r="T27">
+        <v>0.000102178264660645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.510903333333333</v>
+      </c>
+      <c r="H28">
+        <v>4.53271</v>
+      </c>
+      <c r="I28">
+        <v>0.006822954940483556</v>
+      </c>
+      <c r="J28">
+        <v>0.006974035699447934</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>206.0009306666667</v>
+      </c>
+      <c r="N28">
+        <v>618.002792</v>
+      </c>
+      <c r="O28">
+        <v>0.23916195862692</v>
+      </c>
+      <c r="P28">
+        <v>0.2419708128583115</v>
+      </c>
+      <c r="Q28">
+        <v>311.2474928140356</v>
+      </c>
+      <c r="R28">
+        <v>2801.22743532632</v>
+      </c>
+      <c r="S28">
+        <v>0.001631791267189268</v>
+      </c>
+      <c r="T28">
+        <v>0.001687513087098299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.510903333333333</v>
+      </c>
+      <c r="H29">
+        <v>4.53271</v>
+      </c>
+      <c r="I29">
+        <v>0.006822954940483556</v>
+      </c>
+      <c r="J29">
+        <v>0.006974035699447934</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.2861685</v>
+      </c>
+      <c r="N29">
+        <v>22.572337</v>
+      </c>
+      <c r="O29">
+        <v>0.01310296101633201</v>
+      </c>
+      <c r="P29">
+        <v>0.008837899767937843</v>
+      </c>
+      <c r="Q29">
+        <v>17.05230960721167</v>
+      </c>
+      <c r="R29">
+        <v>102.31385764327</v>
+      </c>
+      <c r="S29">
+        <v>8.940091260134594E-05</v>
+      </c>
+      <c r="T29">
+        <v>6.163582848974113E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.9139249999999999</v>
-      </c>
-      <c r="H26">
-        <v>2.741775</v>
-      </c>
-      <c r="I26">
-        <v>0.004334858410127374</v>
-      </c>
-      <c r="J26">
-        <v>0.004358170143795334</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>262.7325696666667</v>
-      </c>
-      <c r="N26">
-        <v>788.197709</v>
-      </c>
-      <c r="O26">
-        <v>0.4824038834612092</v>
-      </c>
-      <c r="P26">
-        <v>0.5017463484558564</v>
-      </c>
-      <c r="Q26">
-        <v>240.1178637326083</v>
-      </c>
-      <c r="R26">
-        <v>2161.060773593475</v>
-      </c>
-      <c r="S26">
-        <v>0.002091152531299929</v>
-      </c>
-      <c r="T26">
-        <v>0.002186695955598643</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.510903333333333</v>
+      </c>
+      <c r="H30">
+        <v>4.53271</v>
+      </c>
+      <c r="I30">
+        <v>0.006822954940483556</v>
+      </c>
+      <c r="J30">
+        <v>0.006974035699447934</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>486.398356</v>
+      </c>
+      <c r="N30">
+        <v>1459.195068</v>
+      </c>
+      <c r="O30">
+        <v>0.5646963978143673</v>
+      </c>
+      <c r="P30">
+        <v>0.5713285138731203</v>
+      </c>
+      <c r="Q30">
+        <v>734.9008974082533</v>
+      </c>
+      <c r="R30">
+        <v>6614.10807667428</v>
+      </c>
+      <c r="S30">
+        <v>0.003852898077340805</v>
+      </c>
+      <c r="T30">
+        <v>0.003984465451863675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.510903333333333</v>
+      </c>
+      <c r="H31">
+        <v>4.53271</v>
+      </c>
+      <c r="I31">
+        <v>0.006822954940483556</v>
+      </c>
+      <c r="J31">
+        <v>0.006974035699447934</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>138.9495186666667</v>
+      </c>
+      <c r="N31">
+        <v>416.848556</v>
+      </c>
+      <c r="O31">
+        <v>0.1613169364188946</v>
+      </c>
+      <c r="P31">
+        <v>0.1632115343811155</v>
+      </c>
+      <c r="Q31">
+        <v>209.9392909185289</v>
+      </c>
+      <c r="R31">
+        <v>1889.45361826676</v>
+      </c>
+      <c r="S31">
+        <v>0.001100658188322969</v>
+      </c>
+      <c r="T31">
+        <v>0.001138243067335573</v>
       </c>
     </row>
   </sheetData>
